--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2012.215366666667</v>
+        <v>0.07477033333333334</v>
       </c>
       <c r="H2">
-        <v>6036.646100000001</v>
+        <v>0.224311</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.94532566666667</v>
+        <v>2.680851666666667</v>
       </c>
       <c r="N2">
-        <v>77.835977</v>
+        <v>8.042555</v>
       </c>
       <c r="O2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="P2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="Q2">
-        <v>52207.58299963775</v>
+        <v>0.2004481727338889</v>
       </c>
       <c r="R2">
-        <v>469868.2469967398</v>
+        <v>1.804033554605</v>
       </c>
       <c r="S2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="T2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2012.215366666667</v>
+        <v>0.07477033333333334</v>
       </c>
       <c r="H3">
-        <v>6036.646100000001</v>
+        <v>0.224311</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.51427066666666</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N3">
         <v>55.542812</v>
       </c>
       <c r="O3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="P3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="Q3">
-        <v>37254.69993809258</v>
+        <v>1.384318189170223</v>
       </c>
       <c r="R3">
-        <v>335292.2994428332</v>
+        <v>12.458863702532</v>
       </c>
       <c r="S3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="T3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2012.215366666667</v>
+        <v>0.07477033333333334</v>
       </c>
       <c r="H4">
-        <v>6036.646100000001</v>
+        <v>0.224311</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.571174000000001</v>
+        <v>3.745104</v>
       </c>
       <c r="N4">
-        <v>10.713522</v>
+        <v>11.235312</v>
       </c>
       <c r="O4">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="P4">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="Q4">
-        <v>7185.971199840469</v>
+        <v>0.2800226744480001</v>
       </c>
       <c r="R4">
-        <v>64673.74079856421</v>
+        <v>2.520204070032</v>
       </c>
       <c r="S4">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="T4">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
     </row>
   </sheetData>
